--- a/biology/Zoologie/Calliscelio/Calliscelio.xlsx
+++ b/biology/Zoologie/Calliscelio/Calliscelio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliscelio est un genre d'insectes de l'ordre des hyménoptères et de la famille des Platygastridae ou des Scelionidae selon les classifications et de la sous-famille des Scelioninae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calliscelio absconditum - 
 Calliscelio absum - 
@@ -612,7 +626,7 @@
 Calliscelio vitilevuensis - 
 Calliscelio wilderi
 Il existe aussi des espèces fossiles:
-†Calliscelio caudatus Brues, 1940[2] - Ambre de la Baltique (Éocène supérieur) - Russie
+†Calliscelio caudatus Brues, 1940 - Ambre de la Baltique (Éocène supérieur) - Russie
 †Calliscelio prolepticus Brues, 1940 - Ambre de la Baltique (Éocène supérieur) - Russie
 †Calliscelio succinophilus Brues, 1940 - Ambre de la Baltique (Éocène supérieur) - Russie</t>
         </is>
